--- a/面试重点_cnv.xlsx
+++ b/面试重点_cnv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12480" windowHeight="7875" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12480" windowHeight="7875" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="1" r:id="rId1"/>
@@ -3806,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4723,7 +4723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
